--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_CO.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>175.1532425214433</v>
+        <v>776.3549127977486</v>
       </c>
       <c r="C2">
-        <v>0.9231481123694459</v>
+        <v>4.091791633205111</v>
       </c>
       <c r="D2">
-        <v>9.166105731941428</v>
+        <v>40.62814432536199</v>
       </c>
       <c r="E2">
-        <v>5.994895011871151</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F2">
-        <v>3.481530416273598</v>
+        <v>15.43164833159108</v>
       </c>
       <c r="G2">
-        <v>24.12362514197349</v>
+        <v>106.9263384671257</v>
       </c>
       <c r="H2">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I2">
-        <v>219.242767456018</v>
+        <v>971.7787530482959</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>201.2630426488634</v>
+        <v>892.0848376868541</v>
       </c>
       <c r="C3">
-        <v>1.098985848058864</v>
+        <v>4.871180515720371</v>
       </c>
       <c r="D3">
-        <v>6.110737154627619</v>
+        <v>27.08542955024134</v>
       </c>
       <c r="E3">
-        <v>3.425654292497801</v>
+        <v>15.18398118836863</v>
       </c>
       <c r="F3">
-        <v>4.367738158597785</v>
+        <v>19.35970427054154</v>
       </c>
       <c r="G3">
-        <v>37.39161897005891</v>
+        <v>165.7358246240449</v>
       </c>
       <c r="I3">
-        <v>253.6577770727044</v>
+        <v>1124.320957835771</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>164.0021820503576</v>
+        <v>726.9285907096931</v>
       </c>
       <c r="C4">
-        <v>0.7912698106023821</v>
+        <v>3.507249971318668</v>
       </c>
       <c r="D4">
-        <v>4.837666914080197</v>
+        <v>21.44263172727439</v>
       </c>
       <c r="E4">
-        <v>5.780791618590039</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F4">
-        <v>3.41822986325044</v>
+        <v>15.15107290738033</v>
       </c>
       <c r="G4">
-        <v>24.72671577052283</v>
+        <v>109.5994969288039</v>
       </c>
       <c r="H4">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I4">
-        <v>203.9570765475491</v>
+        <v>904.0259609134607</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>187.6641884158321</v>
+        <v>831.8088351404447</v>
       </c>
       <c r="C5">
-        <v>1.05502641413651</v>
+        <v>4.676333295091555</v>
       </c>
       <c r="D5">
-        <v>7.383807395175038</v>
+        <v>32.72822737320828</v>
       </c>
       <c r="E5">
-        <v>3.853861079060027</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F5">
-        <v>3.323279033715705</v>
+        <v>14.73020977106421</v>
       </c>
       <c r="G5">
-        <v>17.48962822793078</v>
+        <v>77.52159538866616</v>
       </c>
       <c r="H5">
-        <v>0.8004410402911749</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I5">
-        <v>221.5702316061413</v>
+        <v>982.095080632626</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>178.4169675373709</v>
+        <v>790.8211534088867</v>
       </c>
       <c r="C6">
-        <v>1.4506613194377</v>
+        <v>6.429958280750889</v>
       </c>
       <c r="D6">
-        <v>6.110737154627619</v>
+        <v>27.08542955024134</v>
       </c>
       <c r="E6">
-        <v>3.639757685778914</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F6">
-        <v>3.291628757204129</v>
+        <v>14.58992205895884</v>
       </c>
       <c r="G6">
-        <v>23.52053451342415</v>
+        <v>104.2531800054476</v>
       </c>
       <c r="H6">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I6">
-        <v>216.6303972279162</v>
+        <v>960.199598523736</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>174.8812654367827</v>
+        <v>775.1493927468206</v>
       </c>
       <c r="C7">
-        <v>0.8352292445247367</v>
+        <v>3.702097191947482</v>
       </c>
       <c r="D7">
-        <v>4.837666914080197</v>
+        <v>21.44263172727439</v>
       </c>
       <c r="E7">
-        <v>4.924378045465589</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F7">
-        <v>3.703082351854645</v>
+        <v>16.41366231632869</v>
       </c>
       <c r="G7">
-        <v>21.71126262777615</v>
+        <v>96.23370462041318</v>
       </c>
       <c r="H7">
-        <v>1.800992340655144</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I7">
-        <v>212.6938769611391</v>
+        <v>942.7512384223464</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>168.6257924895883</v>
+        <v>747.4224315754723</v>
       </c>
       <c r="C8">
-        <v>1.274823583748283</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D8">
-        <v>5.092280962189682</v>
+        <v>22.57119129186778</v>
       </c>
       <c r="E8">
-        <v>4.282067865622251</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F8">
-        <v>3.513180692785177</v>
+        <v>15.57193604369645</v>
       </c>
       <c r="G8">
-        <v>18.09271885648011</v>
+        <v>80.19475385034431</v>
       </c>
       <c r="H8">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I8">
-        <v>201.4811952306322</v>
+        <v>893.0517842655047</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>189.0240738391353</v>
+        <v>837.8364353950858</v>
       </c>
       <c r="C9">
-        <v>0.703350942757673</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D9">
-        <v>10.18456192437936</v>
+        <v>45.14238258373556</v>
       </c>
       <c r="E9">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F9">
-        <v>3.44988013976202</v>
+        <v>15.29136061948571</v>
       </c>
       <c r="G9">
-        <v>13.26799382808542</v>
+        <v>58.80948615691914</v>
       </c>
       <c r="H9">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I9">
-        <v>222.3686728930848</v>
+        <v>985.6341176882675</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>230.0926136228897</v>
+        <v>1019.869963085241</v>
       </c>
       <c r="C10">
-        <v>1.05502641413651</v>
+        <v>4.676333295091555</v>
       </c>
       <c r="D10">
-        <v>6.365351202737106</v>
+        <v>28.21398911483472</v>
       </c>
       <c r="E10">
-        <v>4.710274652184478</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F10">
-        <v>3.006776268599926</v>
+        <v>13.32733265001048</v>
       </c>
       <c r="G10">
-        <v>9.649450056789396</v>
+        <v>42.7705353868503</v>
       </c>
       <c r="H10">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I10">
-        <v>255.0796024774099</v>
+        <v>1130.623102872844</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>224.6530719296772</v>
+        <v>995.7595620666772</v>
       </c>
       <c r="C11">
-        <v>0.3077160374564819</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D11">
-        <v>6.874579298956069</v>
+        <v>30.4711082440215</v>
       </c>
       <c r="E11">
-        <v>5.566688225308926</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F11">
-        <v>1.582513825578909</v>
+        <v>7.014385605268677</v>
       </c>
       <c r="G11">
-        <v>6.030906285493373</v>
+        <v>26.73158461678143</v>
       </c>
       <c r="H11">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I11">
-        <v>245.4156961226165</v>
+        <v>1087.788490921868</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>197.999317632936</v>
+        <v>877.6185970757158</v>
       </c>
       <c r="C12">
-        <v>0.5275132070682548</v>
+        <v>2.338166647545778</v>
       </c>
       <c r="D12">
-        <v>4.837666914080197</v>
+        <v>21.44263172727439</v>
       </c>
       <c r="E12">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F12">
-        <v>1.139409954416813</v>
+        <v>5.050357635793445</v>
       </c>
       <c r="G12">
-        <v>10.25254068533873</v>
+        <v>45.44369384852843</v>
       </c>
       <c r="H12">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I12">
-        <v>222.6502876788245</v>
+        <v>986.8823561980327</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>155.5708924258782</v>
+        <v>689.5574691309198</v>
       </c>
       <c r="C13">
-        <v>0.2637566035341274</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D13">
-        <v>3.819210721642261</v>
+        <v>16.92839346890083</v>
       </c>
       <c r="E13">
-        <v>5.994895011871151</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F13">
-        <v>1.012808848370501</v>
+        <v>4.489206787371948</v>
       </c>
       <c r="G13">
-        <v>5.427815656944038</v>
+        <v>24.05842615510329</v>
       </c>
       <c r="H13">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I13">
-        <v>172.289489528313</v>
+        <v>763.6615211525229</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>122.1177110126212</v>
+        <v>541.2785028667536</v>
       </c>
       <c r="C14">
-        <v>0.3956349053011911</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D14">
-        <v>3.564596673532778</v>
+        <v>15.79983390430744</v>
       </c>
       <c r="E14">
-        <v>6.851308584995602</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F14">
-        <v>0.6646558067431411</v>
+        <v>2.946041954212843</v>
       </c>
       <c r="G14">
-        <v>3.618543771296024</v>
+        <v>16.03895077006885</v>
       </c>
       <c r="I14">
-        <v>137.2124507544899</v>
+        <v>608.1849168577394</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>80.2332399748848</v>
+        <v>355.6284150238134</v>
       </c>
       <c r="C15">
-        <v>0.1758377356894182</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D15">
-        <v>1.527684288656905</v>
+        <v>6.771357387560335</v>
       </c>
       <c r="E15">
-        <v>3.853861079060027</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F15">
-        <v>0.4747541476736723</v>
+        <v>2.104315681580602</v>
       </c>
       <c r="G15">
-        <v>4.22163439984536</v>
+        <v>18.712109231747</v>
       </c>
       <c r="H15">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I15">
-        <v>90.68712188588296</v>
+        <v>401.9645402509404</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>41.61249395307583</v>
+        <v>184.4445677920118</v>
       </c>
       <c r="C16">
-        <v>0.4835537731459001</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D16">
-        <v>2.036912384875873</v>
+        <v>9.02847651674711</v>
       </c>
       <c r="E16">
-        <v>1.7128271462489</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F16">
-        <v>0.5697049772084067</v>
+        <v>2.525178817896722</v>
       </c>
       <c r="G16">
-        <v>3.015453142746686</v>
+        <v>13.36579230839072</v>
       </c>
       <c r="I16">
-        <v>49.4309453773016</v>
+        <v>219.0993254561477</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>28.55759388936575</v>
+        <v>126.579605347459</v>
       </c>
       <c r="C17">
-        <v>0.2197971696117728</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D17">
-        <v>0.5092280962189681</v>
+        <v>2.257119129186778</v>
       </c>
       <c r="F17">
-        <v>0.2848524886042034</v>
+        <v>1.262589408948361</v>
       </c>
       <c r="G17">
-        <v>3.015453142746686</v>
+        <v>13.36579230839072</v>
       </c>
       <c r="I17">
-        <v>32.58692478654739</v>
+        <v>144.439342297129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>23.11805219615322</v>
+        <v>102.4692043288955</v>
       </c>
       <c r="C18">
-        <v>0.4395943392235457</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D18">
-        <v>1.018456192437936</v>
+        <v>4.514238258373555</v>
       </c>
       <c r="E18">
-        <v>0.2141033932811126</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F18">
-        <v>0.3798033181389379</v>
+        <v>1.683452545264481</v>
       </c>
       <c r="G18">
-        <v>2.412362514197349</v>
+        <v>10.69263384671257</v>
       </c>
       <c r="H18">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I18">
-        <v>27.98259247357769</v>
+        <v>124.0309504234255</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>12.78292297904943</v>
+        <v>56.6594423936245</v>
       </c>
       <c r="C19">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D19">
-        <v>1.018456192437936</v>
+        <v>4.514238258373555</v>
       </c>
       <c r="F19">
-        <v>0.4114535946505161</v>
+        <v>1.823740257369855</v>
       </c>
       <c r="G19">
-        <v>4.22163439984536</v>
+        <v>18.712109231747</v>
       </c>
       <c r="I19">
-        <v>18.56634546775031</v>
+        <v>82.29407180300134</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>12.51094589438881</v>
+        <v>55.45392234269634</v>
       </c>
       <c r="C20">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D20">
-        <v>0.7638421443284524</v>
+        <v>3.385678693780168</v>
       </c>
       <c r="E20">
-        <v>0.8564135731244502</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F20">
-        <v>0.2532022120926253</v>
+        <v>1.122301696842987</v>
       </c>
       <c r="G20">
-        <v>1.206181257098675</v>
+        <v>5.346316923356287</v>
       </c>
       <c r="I20">
-        <v>15.72246338280007</v>
+        <v>69.68875661565438</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>32.63725015927516</v>
+        <v>144.6624061113817</v>
       </c>
       <c r="C21">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D21">
-        <v>1.018456192437936</v>
+        <v>4.514238258373555</v>
       </c>
       <c r="E21">
-        <v>0.4282067865622251</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F21">
-        <v>0.4114535946505161</v>
+        <v>1.823740257369855</v>
       </c>
       <c r="G21">
-        <v>1.206181257098675</v>
+        <v>5.346316923356287</v>
       </c>
       <c r="I21">
-        <v>35.74550742394688</v>
+        <v>158.4395464196563</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>94.10407129257668</v>
+        <v>417.1099376211507</v>
       </c>
       <c r="C22">
-        <v>0.3516754713788365</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D22">
-        <v>3.819210721642261</v>
+        <v>16.92839346890083</v>
       </c>
       <c r="E22">
-        <v>1.926930539530013</v>
+        <v>8.540989418457356</v>
       </c>
       <c r="F22">
-        <v>1.329311613486282</v>
+        <v>5.892083908425685</v>
       </c>
       <c r="G22">
-        <v>9.649450056789396</v>
+        <v>42.7705353868503</v>
       </c>
       <c r="I22">
-        <v>111.1806496954035</v>
+        <v>492.8007175688153</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>149.0434423940232</v>
+        <v>660.6249879086429</v>
       </c>
       <c r="C23">
-        <v>0.6154320749129638</v>
+        <v>2.727861088803408</v>
       </c>
       <c r="D23">
-        <v>4.073824769751745</v>
+        <v>18.05695303349422</v>
       </c>
       <c r="E23">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F23">
-        <v>2.373770738368362</v>
+        <v>10.52157840790301</v>
       </c>
       <c r="G23">
-        <v>19.90199074212812</v>
+        <v>88.21422923537872</v>
       </c>
       <c r="H23">
-        <v>1.000551300363969</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I23">
-        <v>184.5026307843874</v>
+        <v>817.7954445578243</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>196.3674551249723</v>
+        <v>870.385476770147</v>
       </c>
       <c r="C24">
-        <v>0.3956349053011911</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D24">
-        <v>6.365351202737106</v>
+        <v>28.21398911483472</v>
       </c>
       <c r="E24">
-        <v>8.135928944682279</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F24">
-        <v>2.59532267394941</v>
+        <v>11.50359239264062</v>
       </c>
       <c r="G24">
-        <v>12.06181257098675</v>
+        <v>53.46316923356287</v>
       </c>
       <c r="H24">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I24">
-        <v>226.3217259427746</v>
+        <v>1003.155758232838</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>198.5432718022572</v>
+        <v>880.0296371775722</v>
       </c>
       <c r="C25">
-        <v>0.4395943392235457</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D25">
-        <v>5.092280962189682</v>
+        <v>22.57119129186778</v>
       </c>
       <c r="E25">
-        <v>5.566688225308926</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F25">
-        <v>1.962317143717846</v>
+        <v>8.697838150533153</v>
       </c>
       <c r="G25">
-        <v>18.09271885648011</v>
+        <v>80.19475385034431</v>
       </c>
       <c r="H25">
-        <v>1.200661560436762</v>
+        <v>5.321851240854837</v>
       </c>
       <c r="I25">
-        <v>230.897532889614</v>
+        <v>1023.437713348559</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>175.1532425214433</v>
+        <v>776.3549127977486</v>
       </c>
       <c r="C26">
-        <v>0.9231481123694459</v>
+        <v>4.091791633205111</v>
       </c>
       <c r="D26">
-        <v>9.166105731941428</v>
+        <v>40.62814432536199</v>
       </c>
       <c r="E26">
-        <v>5.994895011871151</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F26">
-        <v>3.481530416273598</v>
+        <v>15.43164833159108</v>
       </c>
       <c r="G26">
-        <v>24.12362514197349</v>
+        <v>106.9263384671257</v>
       </c>
       <c r="H26">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I26">
-        <v>219.242767456018</v>
+        <v>971.7787530482959</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>151.2192590713082</v>
+        <v>670.2691483160688</v>
       </c>
       <c r="C27">
-        <v>0.9231481123694459</v>
+        <v>4.091791633205111</v>
       </c>
       <c r="D27">
-        <v>6.619965250846587</v>
+        <v>29.34254867942811</v>
       </c>
       <c r="E27">
-        <v>3.639757685778914</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F27">
-        <v>4.082885669993582</v>
+        <v>18.09711486159318</v>
       </c>
       <c r="G27">
-        <v>16.88653759938144</v>
+        <v>74.848436926988</v>
       </c>
       <c r="H27">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I27">
-        <v>183.5716636497509</v>
+        <v>813.6689956367341</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>171.6175404208552</v>
+        <v>760.6831521356825</v>
       </c>
       <c r="C28">
-        <v>1.274823583748283</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D28">
-        <v>6.619965250846587</v>
+        <v>29.34254867942811</v>
       </c>
       <c r="E28">
-        <v>4.924378045465589</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F28">
-        <v>3.165027651157817</v>
+        <v>14.02877121053735</v>
       </c>
       <c r="G28">
-        <v>24.12362514197349</v>
+        <v>106.9263384671257</v>
       </c>
       <c r="H28">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I28">
-        <v>212.1255806141925</v>
+        <v>940.2323032629075</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>156.3868236798601</v>
+        <v>693.1740292837045</v>
       </c>
       <c r="C29">
-        <v>1.098985848058864</v>
+        <v>4.871180515720371</v>
       </c>
       <c r="D29">
-        <v>7.129193347065556</v>
+        <v>31.59966780861489</v>
       </c>
       <c r="E29">
-        <v>3.639757685778914</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F29">
-        <v>2.59532267394941</v>
+        <v>11.50359239264062</v>
       </c>
       <c r="G29">
-        <v>10.25254068533873</v>
+        <v>45.44369384852843</v>
       </c>
       <c r="H29">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I29">
-        <v>181.7029547002699</v>
+        <v>805.386069482278</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>158.0186861878239</v>
+        <v>700.4071495892733</v>
       </c>
       <c r="C30">
-        <v>0.6593915088353185</v>
+        <v>2.922708309432222</v>
       </c>
       <c r="D30">
-        <v>6.365351202737106</v>
+        <v>28.21398911483472</v>
       </c>
       <c r="E30">
-        <v>3.211550899216688</v>
+        <v>14.23498236409559</v>
       </c>
       <c r="F30">
-        <v>3.165027651157817</v>
+        <v>14.02877121053735</v>
       </c>
       <c r="G30">
-        <v>19.90199074212812</v>
+        <v>88.21422923537872</v>
       </c>
       <c r="H30">
-        <v>0.8004410402911749</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I30">
-        <v>192.1224392321901</v>
+        <v>851.5697306507884</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>158.5626403571451</v>
+        <v>702.8181896911295</v>
       </c>
       <c r="C31">
-        <v>0.8791886784470914</v>
+        <v>3.896944412576297</v>
       </c>
       <c r="D31">
-        <v>8.14764953950349</v>
+        <v>36.11390606698844</v>
       </c>
       <c r="E31">
-        <v>3.425654292497801</v>
+        <v>15.18398118836863</v>
       </c>
       <c r="F31">
-        <v>3.703082351854645</v>
+        <v>16.41366231632869</v>
       </c>
       <c r="G31">
-        <v>12.66490319953608</v>
+        <v>56.13632769524099</v>
       </c>
       <c r="H31">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I31">
-        <v>187.7833389391297</v>
+        <v>832.3369617842509</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>165.906021642982</v>
+        <v>735.3672310661907</v>
       </c>
       <c r="C32">
-        <v>1.011066980214155</v>
+        <v>4.481486074462741</v>
       </c>
       <c r="D32">
-        <v>6.365351202737106</v>
+        <v>28.21398911483472</v>
       </c>
       <c r="E32">
-        <v>4.496171258903364</v>
+        <v>19.92897530973383</v>
       </c>
       <c r="F32">
-        <v>3.703082351854645</v>
+        <v>16.41366231632869</v>
       </c>
       <c r="G32">
-        <v>13.87108445663477</v>
+        <v>61.48264461859728</v>
       </c>
       <c r="H32">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I32">
-        <v>195.9531086735444</v>
+        <v>868.5489141205753</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>189.0240738391353</v>
+        <v>837.8364353950858</v>
       </c>
       <c r="C33">
-        <v>0.703350942757673</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D33">
-        <v>10.18456192437936</v>
+        <v>45.14238258373556</v>
       </c>
       <c r="E33">
-        <v>5.138481438746702</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F33">
-        <v>3.44988013976202</v>
+        <v>15.29136061948571</v>
       </c>
       <c r="G33">
-        <v>13.26799382808542</v>
+        <v>58.80948615691914</v>
       </c>
       <c r="H33">
-        <v>0.600330780218381</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I33">
-        <v>222.3686728930848</v>
+        <v>985.6341176882675</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>230.0926136228897</v>
+        <v>1019.869963085241</v>
       </c>
       <c r="C34">
-        <v>1.05502641413651</v>
+        <v>4.676333295091555</v>
       </c>
       <c r="D34">
-        <v>6.365351202737106</v>
+        <v>28.21398911483472</v>
       </c>
       <c r="E34">
-        <v>4.710274652184478</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F34">
-        <v>3.006776268599926</v>
+        <v>13.32733265001048</v>
       </c>
       <c r="G34">
-        <v>9.649450056789396</v>
+        <v>42.7705353868503</v>
       </c>
       <c r="H34">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I34">
-        <v>255.0796024774099</v>
+        <v>1130.623102872844</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>224.6530719296772</v>
+        <v>995.7595620666772</v>
       </c>
       <c r="C35">
-        <v>0.3077160374564819</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D35">
-        <v>6.874579298956069</v>
+        <v>30.4711082440215</v>
       </c>
       <c r="E35">
-        <v>5.566688225308926</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F35">
-        <v>1.582513825578909</v>
+        <v>7.014385605268677</v>
       </c>
       <c r="G35">
-        <v>6.030906285493373</v>
+        <v>26.73158461678143</v>
       </c>
       <c r="H35">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I35">
-        <v>245.4156961226165</v>
+        <v>1087.788490921868</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>197.999317632936</v>
+        <v>877.6185970757158</v>
       </c>
       <c r="C36">
-        <v>0.5275132070682548</v>
+        <v>2.338166647545778</v>
       </c>
       <c r="D36">
-        <v>4.837666914080197</v>
+        <v>21.44263172727439</v>
       </c>
       <c r="E36">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F36">
-        <v>1.139409954416813</v>
+        <v>5.050357635793445</v>
       </c>
       <c r="G36">
-        <v>10.25254068533873</v>
+        <v>45.44369384852843</v>
       </c>
       <c r="H36">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I36">
-        <v>222.6502876788245</v>
+        <v>986.8823561980327</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>155.5708924258782</v>
+        <v>689.5574691309198</v>
       </c>
       <c r="C37">
-        <v>0.2637566035341274</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D37">
-        <v>3.819210721642261</v>
+        <v>16.92839346890083</v>
       </c>
       <c r="E37">
-        <v>5.994895011871151</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F37">
-        <v>1.012808848370501</v>
+        <v>4.489206787371948</v>
       </c>
       <c r="G37">
-        <v>5.427815656944038</v>
+        <v>24.05842615510329</v>
       </c>
       <c r="H37">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I37">
-        <v>172.289489528313</v>
+        <v>763.6615211525229</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>122.1177110126212</v>
+        <v>541.2785028667536</v>
       </c>
       <c r="C38">
-        <v>0.3956349053011911</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D38">
-        <v>3.564596673532778</v>
+        <v>15.79983390430744</v>
       </c>
       <c r="E38">
-        <v>6.851308584995602</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F38">
-        <v>0.6646558067431411</v>
+        <v>2.946041954212843</v>
       </c>
       <c r="G38">
-        <v>3.618543771296024</v>
+        <v>16.03895077006885</v>
       </c>
       <c r="I38">
-        <v>137.2124507544899</v>
+        <v>608.1849168577394</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>80.2332399748848</v>
+        <v>355.6284150238134</v>
       </c>
       <c r="C39">
-        <v>0.1758377356894182</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D39">
-        <v>1.527684288656905</v>
+        <v>6.771357387560335</v>
       </c>
       <c r="E39">
-        <v>3.853861079060027</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F39">
-        <v>0.4747541476736723</v>
+        <v>2.104315681580602</v>
       </c>
       <c r="G39">
-        <v>4.22163439984536</v>
+        <v>18.712109231747</v>
       </c>
       <c r="H39">
-        <v>0.2001102600727937</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I39">
-        <v>90.68712188588296</v>
+        <v>401.9645402509404</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>41.61249395307583</v>
+        <v>184.4445677920118</v>
       </c>
       <c r="C40">
-        <v>0.4835537731459001</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D40">
-        <v>2.036912384875873</v>
+        <v>9.02847651674711</v>
       </c>
       <c r="E40">
-        <v>1.7128271462489</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F40">
-        <v>0.5697049772084067</v>
+        <v>2.525178817896722</v>
       </c>
       <c r="G40">
-        <v>3.015453142746686</v>
+        <v>13.36579230839072</v>
       </c>
       <c r="I40">
-        <v>49.4309453773016</v>
+        <v>219.0993254561477</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>28.55759388936575</v>
+        <v>126.579605347459</v>
       </c>
       <c r="C41">
-        <v>0.2197971696117728</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D41">
-        <v>0.5092280962189681</v>
+        <v>2.257119129186778</v>
       </c>
       <c r="F41">
-        <v>0.2848524886042034</v>
+        <v>1.262589408948361</v>
       </c>
       <c r="G41">
-        <v>3.015453142746686</v>
+        <v>13.36579230839072</v>
       </c>
       <c r="I41">
-        <v>32.58692478654739</v>
+        <v>144.439342297129</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>23.11805219615322</v>
+        <v>102.4692043288955</v>
       </c>
       <c r="C42">
-        <v>0.4395943392235457</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D42">
-        <v>1.018456192437936</v>
+        <v>4.514238258373555</v>
       </c>
       <c r="E42">
-        <v>0.2141033932811126</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F42">
-        <v>0.3798033181389379</v>
+        <v>1.683452545264481</v>
       </c>
       <c r="G42">
-        <v>2.412362514197349</v>
+        <v>10.69263384671257</v>
       </c>
       <c r="H42">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I42">
-        <v>27.98259247357769</v>
+        <v>124.0309504234255</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>12.78292297904943</v>
+        <v>56.6594423936245</v>
       </c>
       <c r="C43">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D43">
-        <v>1.018456192437936</v>
+        <v>4.514238258373555</v>
       </c>
       <c r="F43">
-        <v>0.4114535946505161</v>
+        <v>1.823740257369855</v>
       </c>
       <c r="G43">
-        <v>4.22163439984536</v>
+        <v>18.712109231747</v>
       </c>
       <c r="I43">
-        <v>18.56634546775031</v>
+        <v>82.29407180300134</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>12.51094589438881</v>
+        <v>55.45392234269634</v>
       </c>
       <c r="C44">
-        <v>0.1318783017670637</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D44">
-        <v>0.7638421443284524</v>
+        <v>3.385678693780168</v>
       </c>
       <c r="E44">
-        <v>0.8564135731244502</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F44">
-        <v>0.2532022120926253</v>
+        <v>1.122301696842987</v>
       </c>
       <c r="G44">
-        <v>1.206181257098675</v>
+        <v>5.346316923356287</v>
       </c>
       <c r="I44">
-        <v>15.72246338280007</v>
+        <v>69.68875661565438</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>32.63725015927516</v>
+        <v>144.6624061113817</v>
       </c>
       <c r="C45">
-        <v>0.04395943392235456</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D45">
-        <v>1.018456192437936</v>
+        <v>4.514238258373555</v>
       </c>
       <c r="E45">
-        <v>0.4282067865622251</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F45">
-        <v>0.4114535946505161</v>
+        <v>1.823740257369855</v>
       </c>
       <c r="G45">
-        <v>1.206181257098675</v>
+        <v>5.346316923356287</v>
       </c>
       <c r="I45">
-        <v>35.74550742394688</v>
+        <v>158.4395464196563</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>94.10407129257668</v>
+        <v>417.1099376211507</v>
       </c>
       <c r="C46">
-        <v>0.3516754713788365</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D46">
-        <v>3.819210721642261</v>
+        <v>16.92839346890083</v>
       </c>
       <c r="E46">
-        <v>1.926930539530013</v>
+        <v>8.540989418457356</v>
       </c>
       <c r="F46">
-        <v>1.329311613486282</v>
+        <v>5.892083908425685</v>
       </c>
       <c r="G46">
-        <v>9.649450056789396</v>
+        <v>42.7705353868503</v>
       </c>
       <c r="I46">
-        <v>111.1806496954035</v>
+        <v>492.8007175688153</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>149.0434423940232</v>
+        <v>660.6249879086429</v>
       </c>
       <c r="C47">
-        <v>0.6154320749129638</v>
+        <v>2.727861088803408</v>
       </c>
       <c r="D47">
-        <v>4.073824769751745</v>
+        <v>18.05695303349422</v>
       </c>
       <c r="E47">
-        <v>7.493618764838939</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F47">
-        <v>2.373770738368362</v>
+        <v>10.52157840790301</v>
       </c>
       <c r="G47">
-        <v>19.90199074212812</v>
+        <v>88.21422923537872</v>
       </c>
       <c r="H47">
-        <v>1.000551300363969</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I47">
-        <v>184.5026307843874</v>
+        <v>817.7954445578243</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>196.3674551249723</v>
+        <v>870.385476770147</v>
       </c>
       <c r="C48">
-        <v>0.3956349053011911</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D48">
-        <v>6.365351202737106</v>
+        <v>28.21398911483472</v>
       </c>
       <c r="E48">
-        <v>8.135928944682279</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F48">
-        <v>2.59532267394941</v>
+        <v>11.50359239264062</v>
       </c>
       <c r="G48">
-        <v>12.06181257098675</v>
+        <v>53.46316923356287</v>
       </c>
       <c r="H48">
-        <v>0.4002205201455875</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I48">
-        <v>226.3217259427746</v>
+        <v>1003.155758232838</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>198.5432718022572</v>
+        <v>880.0296371775722</v>
       </c>
       <c r="C49">
-        <v>0.4395943392235457</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D49">
-        <v>5.092280962189682</v>
+        <v>22.57119129186778</v>
       </c>
       <c r="E49">
-        <v>5.566688225308926</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F49">
-        <v>1.962317143717846</v>
+        <v>8.697838150533153</v>
       </c>
       <c r="G49">
-        <v>18.09271885648011</v>
+        <v>80.19475385034431</v>
       </c>
       <c r="H49">
-        <v>1.200661560436762</v>
+        <v>5.321851240854837</v>
       </c>
       <c r="I49">
-        <v>230.897532889614</v>
+        <v>1023.437713348559</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_CO.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>776.3549127977486</v>
+        <v>172.5233139550553</v>
       </c>
       <c r="C2">
-        <v>4.091791633205111</v>
+        <v>0.9092870296011358</v>
       </c>
       <c r="D2">
-        <v>40.62814432536199</v>
+        <v>9.02847651674711</v>
       </c>
       <c r="E2">
-        <v>26.57196707964511</v>
+        <v>5.90488157325447</v>
       </c>
       <c r="F2">
-        <v>15.43164833159108</v>
+        <v>3.429255184798018</v>
       </c>
       <c r="G2">
-        <v>106.9263384671257</v>
+        <v>23.76140854825017</v>
       </c>
       <c r="H2">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I2">
-        <v>971.7787530482959</v>
+        <v>215.9508340107325</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>892.0848376868541</v>
+        <v>198.2410750415232</v>
       </c>
       <c r="C3">
-        <v>4.871180515720371</v>
+        <v>1.082484559048971</v>
       </c>
       <c r="D3">
-        <v>27.08542955024134</v>
+        <v>6.018984344498074</v>
       </c>
       <c r="E3">
-        <v>15.18398118836863</v>
+        <v>3.374218041859697</v>
       </c>
       <c r="F3">
-        <v>19.35970427054154</v>
+        <v>4.302156504564785</v>
       </c>
       <c r="G3">
-        <v>165.7358246240449</v>
+        <v>36.83018324978774</v>
       </c>
       <c r="I3">
-        <v>1124.320957835771</v>
+        <v>249.8491017412825</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>726.9285907096931</v>
+        <v>161.5396868243762</v>
       </c>
       <c r="C4">
-        <v>3.507249971318668</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D4">
-        <v>21.44263172727439</v>
+        <v>4.765029272727642</v>
       </c>
       <c r="E4">
-        <v>25.62296825537207</v>
+        <v>5.693992945638238</v>
       </c>
       <c r="F4">
-        <v>15.15107290738033</v>
+        <v>3.366905090528963</v>
       </c>
       <c r="G4">
-        <v>109.5994969288039</v>
+        <v>24.35544376195642</v>
       </c>
       <c r="H4">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I4">
-        <v>904.0259609134607</v>
+        <v>200.894657980769</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>831.8088351404447</v>
+        <v>184.8464078089878</v>
       </c>
       <c r="C5">
-        <v>4.676333295091555</v>
+        <v>1.039185176687012</v>
       </c>
       <c r="D5">
-        <v>32.72822737320828</v>
+        <v>7.272939416268505</v>
       </c>
       <c r="E5">
-        <v>17.08197883691471</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F5">
-        <v>14.73020977106421</v>
+        <v>3.27337994912538</v>
       </c>
       <c r="G5">
-        <v>77.52159538866616</v>
+        <v>17.22702119748137</v>
       </c>
       <c r="H5">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I5">
-        <v>982.095080632626</v>
+        <v>218.2433512516948</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>790.8211534088867</v>
+        <v>175.7380340908638</v>
       </c>
       <c r="C6">
-        <v>6.429958280750889</v>
+        <v>1.428879617944642</v>
       </c>
       <c r="D6">
-        <v>27.08542955024134</v>
+        <v>6.018984344498074</v>
       </c>
       <c r="E6">
-        <v>16.13298001264167</v>
+        <v>3.585106669475927</v>
       </c>
       <c r="F6">
-        <v>14.58992205895884</v>
+        <v>3.242204901990854</v>
       </c>
       <c r="G6">
-        <v>104.2531800054476</v>
+        <v>23.16737333454392</v>
       </c>
       <c r="H6">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I6">
-        <v>960.199598523736</v>
+        <v>213.3776885608303</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>775.1493927468206</v>
+        <v>172.2554206104046</v>
       </c>
       <c r="C7">
-        <v>3.702097191947482</v>
+        <v>0.8226882648772181</v>
       </c>
       <c r="D7">
-        <v>21.44263172727439</v>
+        <v>4.765029272727642</v>
       </c>
       <c r="E7">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F7">
-        <v>16.41366231632869</v>
+        <v>3.64748051473971</v>
       </c>
       <c r="G7">
-        <v>96.23370462041318</v>
+        <v>21.38526769342515</v>
       </c>
       <c r="H7">
-        <v>7.982776861282256</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I7">
-        <v>942.7512384223464</v>
+        <v>209.500275204966</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>747.4224315754723</v>
+        <v>166.0938736834383</v>
       </c>
       <c r="C8">
-        <v>5.65056939823563</v>
+        <v>1.255682088496807</v>
       </c>
       <c r="D8">
-        <v>22.57119129186778</v>
+        <v>5.015820287081728</v>
       </c>
       <c r="E8">
-        <v>18.97997648546079</v>
+        <v>4.217772552324621</v>
       </c>
       <c r="F8">
-        <v>15.57193604369645</v>
+        <v>3.460430231932545</v>
       </c>
       <c r="G8">
-        <v>80.19475385034431</v>
+        <v>17.82105641118762</v>
       </c>
       <c r="H8">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I8">
-        <v>893.0517842655047</v>
+        <v>198.455952059001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>837.8364353950858</v>
+        <v>186.1858745322413</v>
       </c>
       <c r="C9">
-        <v>3.117555530061037</v>
+        <v>0.6927901177913416</v>
       </c>
       <c r="D9">
-        <v>45.14238258373556</v>
+        <v>10.03164057416346</v>
       </c>
       <c r="E9">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F9">
-        <v>15.29136061948571</v>
+        <v>3.398080137663491</v>
       </c>
       <c r="G9">
-        <v>58.80948615691914</v>
+        <v>13.06877470153759</v>
       </c>
       <c r="H9">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I9">
-        <v>985.6341176882675</v>
+        <v>219.0298039307261</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1019.869963085241</v>
+        <v>226.637769574498</v>
       </c>
       <c r="C10">
-        <v>4.676333295091555</v>
+        <v>1.039185176687012</v>
       </c>
       <c r="D10">
-        <v>28.21398911483472</v>
+        <v>6.269775358852161</v>
       </c>
       <c r="E10">
-        <v>20.87797413400687</v>
+        <v>4.639549807557082</v>
       </c>
       <c r="F10">
-        <v>13.32733265001048</v>
+        <v>2.961629477780107</v>
       </c>
       <c r="G10">
-        <v>42.7705353868503</v>
+        <v>9.504563419300069</v>
       </c>
       <c r="H10">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I10">
-        <v>1130.623102872844</v>
+        <v>251.2495784161875</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>995.7595620666772</v>
+        <v>221.2799026814839</v>
       </c>
       <c r="C11">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D11">
-        <v>30.4711082440215</v>
+        <v>6.771357387560335</v>
       </c>
       <c r="E11">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F11">
-        <v>7.014385605268677</v>
+        <v>1.558752356726371</v>
       </c>
       <c r="G11">
-        <v>26.73158461678143</v>
+        <v>5.940352137062543</v>
       </c>
       <c r="H11">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I11">
-        <v>1087.788490921868</v>
+        <v>241.7307757604152</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>877.6185970757158</v>
+        <v>195.0263549057147</v>
       </c>
       <c r="C12">
-        <v>2.338166647545778</v>
+        <v>0.5195925883435062</v>
       </c>
       <c r="D12">
-        <v>21.44263172727439</v>
+        <v>4.765029272727642</v>
       </c>
       <c r="E12">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F12">
-        <v>5.050357635793445</v>
+        <v>1.122301696842987</v>
       </c>
       <c r="G12">
-        <v>45.44369384852843</v>
+        <v>10.09859863300632</v>
       </c>
       <c r="H12">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I12">
-        <v>986.8823561980327</v>
+        <v>219.3071902662295</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>689.5574691309198</v>
+        <v>153.2349931402044</v>
       </c>
       <c r="C13">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D13">
-        <v>16.92839346890083</v>
+        <v>3.761865215311296</v>
       </c>
       <c r="E13">
-        <v>26.57196707964511</v>
+        <v>5.90488157325447</v>
       </c>
       <c r="F13">
-        <v>4.489206787371948</v>
+        <v>0.997601508304878</v>
       </c>
       <c r="G13">
-        <v>24.05842615510329</v>
+        <v>5.346316923356287</v>
       </c>
       <c r="H13">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I13">
-        <v>763.6615211525229</v>
+        <v>169.7025602561162</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>541.2785028667536</v>
+        <v>120.2841117481674</v>
       </c>
       <c r="C14">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D14">
-        <v>15.79983390430744</v>
+        <v>3.511074200957208</v>
       </c>
       <c r="E14">
-        <v>30.36796237673726</v>
+        <v>6.748436083719393</v>
       </c>
       <c r="F14">
-        <v>2.946041954212843</v>
+        <v>0.6546759898250762</v>
       </c>
       <c r="G14">
-        <v>16.03895077006885</v>
+        <v>3.564211282237525</v>
       </c>
       <c r="I14">
-        <v>608.1849168577394</v>
+        <v>135.1522037461642</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>355.6284150238134</v>
+        <v>79.02853667195855</v>
       </c>
       <c r="C15">
-        <v>0.7793888825152593</v>
+        <v>0.1731975294478354</v>
       </c>
       <c r="D15">
-        <v>6.771357387560335</v>
+        <v>1.504746086124519</v>
       </c>
       <c r="E15">
-        <v>17.08197883691471</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F15">
-        <v>2.104315681580602</v>
+        <v>0.4676257070179115</v>
       </c>
       <c r="G15">
-        <v>18.712109231747</v>
+        <v>4.158246495943779</v>
       </c>
       <c r="H15">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I15">
-        <v>401.9645402509404</v>
+        <v>89.3254533890979</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>184.4445677920118</v>
+        <v>40.98768173155818</v>
       </c>
       <c r="C16">
-        <v>2.143319426916963</v>
+        <v>0.4762932059815473</v>
       </c>
       <c r="D16">
-        <v>9.02847651674711</v>
+        <v>2.006328114832692</v>
       </c>
       <c r="E16">
-        <v>7.591990594184314</v>
+        <v>1.687109020929848</v>
       </c>
       <c r="F16">
-        <v>2.525178817896722</v>
+        <v>0.5611508484214935</v>
       </c>
       <c r="G16">
-        <v>13.36579230839072</v>
+        <v>2.970176068531271</v>
       </c>
       <c r="I16">
-        <v>219.0993254561477</v>
+        <v>48.68873899025503</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>126.579605347459</v>
+        <v>28.12880118832425</v>
       </c>
       <c r="C17">
-        <v>0.9742361031440743</v>
+        <v>0.2164969118097943</v>
       </c>
       <c r="D17">
-        <v>2.257119129186778</v>
+        <v>0.5015820287081729</v>
       </c>
       <c r="F17">
-        <v>1.262589408948361</v>
+        <v>0.2805754242107468</v>
       </c>
       <c r="G17">
-        <v>13.36579230839072</v>
+        <v>2.970176068531271</v>
       </c>
       <c r="I17">
-        <v>144.439342297129</v>
+        <v>32.09763162158423</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>102.4692043288955</v>
+        <v>22.7709342953101</v>
       </c>
       <c r="C18">
-        <v>1.948472206288149</v>
+        <v>0.4329938236195885</v>
       </c>
       <c r="D18">
-        <v>4.514238258373555</v>
+        <v>1.003164057416346</v>
       </c>
       <c r="E18">
-        <v>0.9489988242730393</v>
+        <v>0.210888627616231</v>
       </c>
       <c r="F18">
-        <v>1.683452545264481</v>
+        <v>0.3741005656143292</v>
       </c>
       <c r="G18">
-        <v>10.69263384671257</v>
+        <v>2.376140854825017</v>
       </c>
       <c r="H18">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I18">
-        <v>124.0309504234255</v>
+        <v>27.56243342742789</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>56.6594423936245</v>
+        <v>12.59098719858323</v>
       </c>
       <c r="C19">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D19">
-        <v>4.514238258373555</v>
+        <v>1.003164057416346</v>
       </c>
       <c r="F19">
-        <v>1.823740257369855</v>
+        <v>0.4052756127488568</v>
       </c>
       <c r="G19">
-        <v>18.712109231747</v>
+        <v>4.158246495943779</v>
       </c>
       <c r="I19">
-        <v>82.29407180300134</v>
+        <v>18.28757151177809</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>55.45392234269634</v>
+        <v>12.32309385393252</v>
       </c>
       <c r="C20">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D20">
-        <v>3.385678693780168</v>
+        <v>0.7523730430622593</v>
       </c>
       <c r="E20">
-        <v>3.795995297092157</v>
+        <v>0.8435545104649241</v>
       </c>
       <c r="F20">
-        <v>1.122301696842987</v>
+        <v>0.2494003770762195</v>
       </c>
       <c r="G20">
-        <v>5.346316923356287</v>
+        <v>1.188070427412509</v>
       </c>
       <c r="I20">
-        <v>69.68875661565438</v>
+        <v>15.48639035903431</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>144.6624061113817</v>
+        <v>32.14720135808483</v>
       </c>
       <c r="C21">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D21">
-        <v>4.514238258373555</v>
+        <v>1.003164057416346</v>
       </c>
       <c r="E21">
-        <v>1.897997648546079</v>
+        <v>0.4217772552324621</v>
       </c>
       <c r="F21">
-        <v>1.823740257369855</v>
+        <v>0.4052756127488568</v>
       </c>
       <c r="G21">
-        <v>5.346316923356287</v>
+        <v>1.188070427412509</v>
       </c>
       <c r="I21">
-        <v>158.4395464196563</v>
+        <v>35.20878809325697</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>417.1099376211507</v>
+        <v>92.69109724914465</v>
       </c>
       <c r="C22">
-        <v>1.558777765030519</v>
+        <v>0.3463950588956708</v>
       </c>
       <c r="D22">
-        <v>16.92839346890083</v>
+        <v>3.761865215311296</v>
       </c>
       <c r="E22">
-        <v>8.540989418457356</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F22">
-        <v>5.892083908425685</v>
+        <v>1.309351979650152</v>
       </c>
       <c r="G22">
-        <v>42.7705353868503</v>
+        <v>9.504563419300069</v>
       </c>
       <c r="I22">
-        <v>492.8007175688153</v>
+        <v>109.5112705708479</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>660.6249879086429</v>
+        <v>146.8055528685874</v>
       </c>
       <c r="C23">
-        <v>2.727861088803408</v>
+        <v>0.6061913530674239</v>
       </c>
       <c r="D23">
-        <v>18.05695303349422</v>
+        <v>4.012656229665383</v>
       </c>
       <c r="E23">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F23">
-        <v>10.52157840790301</v>
+        <v>2.338128535089556</v>
       </c>
       <c r="G23">
-        <v>88.21422923537872</v>
+        <v>19.60316205230639</v>
       </c>
       <c r="H23">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I23">
-        <v>817.7954445578243</v>
+        <v>181.73232101285</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>870.385476770147</v>
+        <v>193.4189948378105</v>
       </c>
       <c r="C24">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D24">
-        <v>28.21398911483472</v>
+        <v>6.269775358852161</v>
       </c>
       <c r="E24">
-        <v>36.06195532237549</v>
+        <v>8.013767849416778</v>
       </c>
       <c r="F24">
-        <v>11.50359239264062</v>
+        <v>2.556353865031251</v>
       </c>
       <c r="G24">
-        <v>53.46316923356287</v>
+        <v>11.88070427412509</v>
       </c>
       <c r="H24">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I24">
-        <v>1003.155758232838</v>
+        <v>222.9235018295197</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>880.0296371775722</v>
+        <v>195.562141595016</v>
       </c>
       <c r="C25">
-        <v>1.948472206288149</v>
+        <v>0.4329938236195885</v>
       </c>
       <c r="D25">
-        <v>22.57119129186778</v>
+        <v>5.015820287081728</v>
       </c>
       <c r="E25">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F25">
-        <v>8.697838150533153</v>
+        <v>1.932852922340701</v>
       </c>
       <c r="G25">
-        <v>80.19475385034431</v>
+        <v>17.82105641118762</v>
       </c>
       <c r="H25">
-        <v>5.321851240854837</v>
+        <v>1.182633609078853</v>
       </c>
       <c r="I25">
-        <v>1023.437713348559</v>
+        <v>227.4306029663466</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>776.3549127977486</v>
+        <v>172.5233139550553</v>
       </c>
       <c r="C26">
-        <v>4.091791633205111</v>
+        <v>0.9092870296011358</v>
       </c>
       <c r="D26">
-        <v>40.62814432536199</v>
+        <v>9.02847651674711</v>
       </c>
       <c r="E26">
-        <v>26.57196707964511</v>
+        <v>5.90488157325447</v>
       </c>
       <c r="F26">
-        <v>15.43164833159108</v>
+        <v>3.429255184798018</v>
       </c>
       <c r="G26">
-        <v>106.9263384671257</v>
+        <v>23.76140854825017</v>
       </c>
       <c r="H26">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I26">
-        <v>971.7787530482959</v>
+        <v>215.9508340107325</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>670.2691483160688</v>
+        <v>148.9486996257931</v>
       </c>
       <c r="C27">
-        <v>4.091791633205111</v>
+        <v>0.9092870296011358</v>
       </c>
       <c r="D27">
-        <v>29.34254867942811</v>
+        <v>6.520566373206243</v>
       </c>
       <c r="E27">
-        <v>16.13298001264167</v>
+        <v>3.585106669475927</v>
       </c>
       <c r="F27">
-        <v>18.09711486159318</v>
+        <v>4.02158108035404</v>
       </c>
       <c r="G27">
-        <v>74.848436926988</v>
+        <v>16.63298598377512</v>
       </c>
       <c r="H27">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I27">
-        <v>813.6689956367341</v>
+        <v>180.8153323637187</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>760.6831521356825</v>
+        <v>169.040700474596</v>
       </c>
       <c r="C28">
-        <v>5.65056939823563</v>
+        <v>1.255682088496807</v>
       </c>
       <c r="D28">
-        <v>29.34254867942811</v>
+        <v>6.520566373206243</v>
       </c>
       <c r="E28">
-        <v>21.8269729582799</v>
+        <v>4.850438435173313</v>
       </c>
       <c r="F28">
-        <v>14.02877121053735</v>
+        <v>3.117504713452743</v>
       </c>
       <c r="G28">
-        <v>106.9263384671257</v>
+        <v>23.76140854825017</v>
       </c>
       <c r="H28">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I28">
-        <v>940.2323032629075</v>
+        <v>208.9405118362016</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>693.1740292837045</v>
+        <v>154.0386731741565</v>
       </c>
       <c r="C29">
-        <v>4.871180515720371</v>
+        <v>1.082484559048971</v>
       </c>
       <c r="D29">
-        <v>31.59966780861489</v>
+        <v>7.022148401914417</v>
       </c>
       <c r="E29">
-        <v>16.13298001264167</v>
+        <v>3.585106669475927</v>
       </c>
       <c r="F29">
-        <v>11.50359239264062</v>
+        <v>2.556353865031251</v>
       </c>
       <c r="G29">
-        <v>45.44369384852843</v>
+        <v>10.09859863300632</v>
       </c>
       <c r="H29">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I29">
-        <v>805.386069482278</v>
+        <v>178.9746821071728</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>700.4071495892733</v>
+        <v>155.6460332420607</v>
       </c>
       <c r="C30">
-        <v>2.922708309432222</v>
+        <v>0.6494907354293827</v>
       </c>
       <c r="D30">
-        <v>28.21398911483472</v>
+        <v>6.269775358852161</v>
       </c>
       <c r="E30">
-        <v>14.23498236409559</v>
+        <v>3.163329414243465</v>
       </c>
       <c r="F30">
-        <v>14.02877121053735</v>
+        <v>3.117504713452743</v>
       </c>
       <c r="G30">
-        <v>88.21422923537872</v>
+        <v>19.60316205230639</v>
       </c>
       <c r="H30">
-        <v>3.547900827236558</v>
+        <v>0.7884224060525685</v>
       </c>
       <c r="I30">
-        <v>851.5697306507884</v>
+        <v>189.2377179223975</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>702.8181896911295</v>
+        <v>156.1818199313621</v>
       </c>
       <c r="C31">
-        <v>3.896944412576297</v>
+        <v>0.8659876472391771</v>
       </c>
       <c r="D31">
-        <v>36.11390606698844</v>
+        <v>8.025312459330767</v>
       </c>
       <c r="E31">
-        <v>15.18398118836863</v>
+        <v>3.374218041859697</v>
       </c>
       <c r="F31">
-        <v>16.41366231632869</v>
+        <v>3.64748051473971</v>
       </c>
       <c r="G31">
-        <v>56.13632769524099</v>
+        <v>12.47473948783134</v>
       </c>
       <c r="H31">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I31">
-        <v>832.3369617842509</v>
+        <v>184.9637692853891</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>735.3672310661907</v>
+        <v>163.4149402369312</v>
       </c>
       <c r="C32">
-        <v>4.481486074462741</v>
+        <v>0.9958857943250535</v>
       </c>
       <c r="D32">
-        <v>28.21398911483472</v>
+        <v>6.269775358852161</v>
       </c>
       <c r="E32">
-        <v>19.92897530973383</v>
+        <v>4.428661179940852</v>
       </c>
       <c r="F32">
-        <v>16.41366231632869</v>
+        <v>3.64748051473971</v>
       </c>
       <c r="G32">
-        <v>61.48264461859728</v>
+        <v>13.66280991524384</v>
       </c>
       <c r="H32">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I32">
-        <v>868.5489141205753</v>
+        <v>193.0108698045722</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>837.8364353950858</v>
+        <v>186.1858745322413</v>
       </c>
       <c r="C33">
-        <v>3.117555530061037</v>
+        <v>0.6927901177913416</v>
       </c>
       <c r="D33">
-        <v>45.14238258373556</v>
+        <v>10.03164057416346</v>
       </c>
       <c r="E33">
-        <v>22.77597178255295</v>
+        <v>5.061327062789545</v>
       </c>
       <c r="F33">
-        <v>15.29136061948571</v>
+        <v>3.398080137663491</v>
       </c>
       <c r="G33">
-        <v>58.80948615691914</v>
+        <v>13.06877470153759</v>
       </c>
       <c r="H33">
-        <v>2.660925620427419</v>
+        <v>0.5913168045394265</v>
       </c>
       <c r="I33">
-        <v>985.6341176882675</v>
+        <v>219.0298039307261</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1019.869963085241</v>
+        <v>226.637769574498</v>
       </c>
       <c r="C34">
-        <v>4.676333295091555</v>
+        <v>1.039185176687012</v>
       </c>
       <c r="D34">
-        <v>28.21398911483472</v>
+        <v>6.269775358852161</v>
       </c>
       <c r="E34">
-        <v>20.87797413400687</v>
+        <v>4.639549807557082</v>
       </c>
       <c r="F34">
-        <v>13.32733265001048</v>
+        <v>2.961629477780107</v>
       </c>
       <c r="G34">
-        <v>42.7705353868503</v>
+        <v>9.504563419300069</v>
       </c>
       <c r="H34">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I34">
-        <v>1130.623102872844</v>
+        <v>251.2495784161875</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>995.7595620666772</v>
+        <v>221.2799026814839</v>
       </c>
       <c r="C35">
-        <v>1.363930544401704</v>
+        <v>0.3030956765337119</v>
       </c>
       <c r="D35">
-        <v>30.4711082440215</v>
+        <v>6.771357387560335</v>
       </c>
       <c r="E35">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F35">
-        <v>7.014385605268677</v>
+        <v>1.558752356726371</v>
       </c>
       <c r="G35">
-        <v>26.73158461678143</v>
+        <v>5.940352137062543</v>
       </c>
       <c r="H35">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I35">
-        <v>1087.788490921868</v>
+        <v>241.7307757604152</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>877.6185970757158</v>
+        <v>195.0263549057147</v>
       </c>
       <c r="C36">
-        <v>2.338166647545778</v>
+        <v>0.5195925883435062</v>
       </c>
       <c r="D36">
-        <v>21.44263172727439</v>
+        <v>4.765029272727642</v>
       </c>
       <c r="E36">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F36">
-        <v>5.050357635793445</v>
+        <v>1.122301696842987</v>
       </c>
       <c r="G36">
-        <v>45.44369384852843</v>
+        <v>10.09859863300632</v>
       </c>
       <c r="H36">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I36">
-        <v>986.8823561980327</v>
+        <v>219.3071902662295</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>689.5574691309198</v>
+        <v>153.2349931402044</v>
       </c>
       <c r="C37">
-        <v>1.169083323772889</v>
+        <v>0.2597962941717531</v>
       </c>
       <c r="D37">
-        <v>16.92839346890083</v>
+        <v>3.761865215311296</v>
       </c>
       <c r="E37">
-        <v>26.57196707964511</v>
+        <v>5.90488157325447</v>
       </c>
       <c r="F37">
-        <v>4.489206787371948</v>
+        <v>0.997601508304878</v>
       </c>
       <c r="G37">
-        <v>24.05842615510329</v>
+        <v>5.346316923356287</v>
       </c>
       <c r="H37">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I37">
-        <v>763.6615211525229</v>
+        <v>169.7025602561162</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>541.2785028667536</v>
+        <v>120.2841117481674</v>
       </c>
       <c r="C38">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D38">
-        <v>15.79983390430744</v>
+        <v>3.511074200957208</v>
       </c>
       <c r="E38">
-        <v>30.36796237673726</v>
+        <v>6.748436083719393</v>
       </c>
       <c r="F38">
-        <v>2.946041954212843</v>
+        <v>0.6546759898250762</v>
       </c>
       <c r="G38">
-        <v>16.03895077006885</v>
+        <v>3.564211282237525</v>
       </c>
       <c r="I38">
-        <v>608.1849168577394</v>
+        <v>135.1522037461642</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>355.6284150238134</v>
+        <v>79.02853667195855</v>
       </c>
       <c r="C39">
-        <v>0.7793888825152593</v>
+        <v>0.1731975294478354</v>
       </c>
       <c r="D39">
-        <v>6.771357387560335</v>
+        <v>1.504746086124519</v>
       </c>
       <c r="E39">
-        <v>17.08197883691471</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F39">
-        <v>2.104315681580602</v>
+        <v>0.4676257070179115</v>
       </c>
       <c r="G39">
-        <v>18.712109231747</v>
+        <v>4.158246495943779</v>
       </c>
       <c r="H39">
-        <v>0.8869752068091395</v>
+        <v>0.1971056015131421</v>
       </c>
       <c r="I39">
-        <v>401.9645402509404</v>
+        <v>89.3254533890979</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>184.4445677920118</v>
+        <v>40.98768173155818</v>
       </c>
       <c r="C40">
-        <v>2.143319426916963</v>
+        <v>0.4762932059815473</v>
       </c>
       <c r="D40">
-        <v>9.02847651674711</v>
+        <v>2.006328114832692</v>
       </c>
       <c r="E40">
-        <v>7.591990594184314</v>
+        <v>1.687109020929848</v>
       </c>
       <c r="F40">
-        <v>2.525178817896722</v>
+        <v>0.5611508484214935</v>
       </c>
       <c r="G40">
-        <v>13.36579230839072</v>
+        <v>2.970176068531271</v>
       </c>
       <c r="I40">
-        <v>219.0993254561477</v>
+        <v>48.68873899025503</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>126.579605347459</v>
+        <v>28.12880118832425</v>
       </c>
       <c r="C41">
-        <v>0.9742361031440743</v>
+        <v>0.2164969118097943</v>
       </c>
       <c r="D41">
-        <v>2.257119129186778</v>
+        <v>0.5015820287081729</v>
       </c>
       <c r="F41">
-        <v>1.262589408948361</v>
+        <v>0.2805754242107468</v>
       </c>
       <c r="G41">
-        <v>13.36579230839072</v>
+        <v>2.970176068531271</v>
       </c>
       <c r="I41">
-        <v>144.439342297129</v>
+        <v>32.09763162158423</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>102.4692043288955</v>
+        <v>22.7709342953101</v>
       </c>
       <c r="C42">
-        <v>1.948472206288149</v>
+        <v>0.4329938236195885</v>
       </c>
       <c r="D42">
-        <v>4.514238258373555</v>
+        <v>1.003164057416346</v>
       </c>
       <c r="E42">
-        <v>0.9489988242730393</v>
+        <v>0.210888627616231</v>
       </c>
       <c r="F42">
-        <v>1.683452545264481</v>
+        <v>0.3741005656143292</v>
       </c>
       <c r="G42">
-        <v>10.69263384671257</v>
+        <v>2.376140854825017</v>
       </c>
       <c r="H42">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I42">
-        <v>124.0309504234255</v>
+        <v>27.56243342742789</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>56.6594423936245</v>
+        <v>12.59098719858323</v>
       </c>
       <c r="C43">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D43">
-        <v>4.514238258373555</v>
+        <v>1.003164057416346</v>
       </c>
       <c r="F43">
-        <v>1.823740257369855</v>
+        <v>0.4052756127488568</v>
       </c>
       <c r="G43">
-        <v>18.712109231747</v>
+        <v>4.158246495943779</v>
       </c>
       <c r="I43">
-        <v>82.29407180300134</v>
+        <v>18.28757151177809</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>55.45392234269634</v>
+        <v>12.32309385393252</v>
       </c>
       <c r="C44">
-        <v>0.5845416618864444</v>
+        <v>0.1298981470858765</v>
       </c>
       <c r="D44">
-        <v>3.385678693780168</v>
+        <v>0.7523730430622593</v>
       </c>
       <c r="E44">
-        <v>3.795995297092157</v>
+        <v>0.8435545104649241</v>
       </c>
       <c r="F44">
-        <v>1.122301696842987</v>
+        <v>0.2494003770762195</v>
       </c>
       <c r="G44">
-        <v>5.346316923356287</v>
+        <v>1.188070427412509</v>
       </c>
       <c r="I44">
-        <v>69.68875661565438</v>
+        <v>15.48639035903431</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>144.6624061113817</v>
+        <v>32.14720135808483</v>
       </c>
       <c r="C45">
-        <v>0.1948472206288148</v>
+        <v>0.04329938236195885</v>
       </c>
       <c r="D45">
-        <v>4.514238258373555</v>
+        <v>1.003164057416346</v>
       </c>
       <c r="E45">
-        <v>1.897997648546079</v>
+        <v>0.4217772552324621</v>
       </c>
       <c r="F45">
-        <v>1.823740257369855</v>
+        <v>0.4052756127488568</v>
       </c>
       <c r="G45">
-        <v>5.346316923356287</v>
+        <v>1.188070427412509</v>
       </c>
       <c r="I45">
-        <v>158.4395464196563</v>
+        <v>35.20878809325697</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>417.1099376211507</v>
+        <v>92.69109724914465</v>
       </c>
       <c r="C46">
-        <v>1.558777765030519</v>
+        <v>0.3463950588956708</v>
       </c>
       <c r="D46">
-        <v>16.92839346890083</v>
+        <v>3.761865215311296</v>
       </c>
       <c r="E46">
-        <v>8.540989418457356</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F46">
-        <v>5.892083908425685</v>
+        <v>1.309351979650152</v>
       </c>
       <c r="G46">
-        <v>42.7705353868503</v>
+        <v>9.504563419300069</v>
       </c>
       <c r="I46">
-        <v>492.8007175688153</v>
+        <v>109.5112705708479</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>660.6249879086429</v>
+        <v>146.8055528685874</v>
       </c>
       <c r="C47">
-        <v>2.727861088803408</v>
+        <v>0.6061913530674239</v>
       </c>
       <c r="D47">
-        <v>18.05695303349422</v>
+        <v>4.012656229665383</v>
       </c>
       <c r="E47">
-        <v>33.21495884955637</v>
+        <v>7.381101966568083</v>
       </c>
       <c r="F47">
-        <v>10.52157840790301</v>
+        <v>2.338128535089556</v>
       </c>
       <c r="G47">
-        <v>88.21422923537872</v>
+        <v>19.60316205230639</v>
       </c>
       <c r="H47">
-        <v>4.434876034045697</v>
+        <v>0.9855280075657108</v>
       </c>
       <c r="I47">
-        <v>817.7954445578243</v>
+        <v>181.73232101285</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>870.385476770147</v>
+        <v>193.4189948378105</v>
       </c>
       <c r="C48">
-        <v>1.753624985659334</v>
+        <v>0.3896944412576296</v>
       </c>
       <c r="D48">
-        <v>28.21398911483472</v>
+        <v>6.269775358852161</v>
       </c>
       <c r="E48">
-        <v>36.06195532237549</v>
+        <v>8.013767849416778</v>
       </c>
       <c r="F48">
-        <v>11.50359239264062</v>
+        <v>2.556353865031251</v>
       </c>
       <c r="G48">
-        <v>53.46316923356287</v>
+        <v>11.88070427412509</v>
       </c>
       <c r="H48">
-        <v>1.773950413618279</v>
+        <v>0.3942112030262843</v>
       </c>
       <c r="I48">
-        <v>1003.155758232838</v>
+        <v>222.9235018295197</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>880.0296371775722</v>
+        <v>195.562141595016</v>
       </c>
       <c r="C49">
-        <v>1.948472206288149</v>
+        <v>0.4329938236195885</v>
       </c>
       <c r="D49">
-        <v>22.57119129186778</v>
+        <v>5.015820287081728</v>
       </c>
       <c r="E49">
-        <v>24.67396943109902</v>
+        <v>5.483104318022007</v>
       </c>
       <c r="F49">
-        <v>8.697838150533153</v>
+        <v>1.932852922340701</v>
       </c>
       <c r="G49">
-        <v>80.19475385034431</v>
+        <v>17.82105641118762</v>
       </c>
       <c r="H49">
-        <v>5.321851240854837</v>
+        <v>1.182633609078853</v>
       </c>
       <c r="I49">
-        <v>1023.437713348559</v>
+        <v>227.4306029663466</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_CO.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>172.5233139550553</v>
+        <v>152.7219315359314</v>
       </c>
       <c r="C2">
-        <v>0.9092870296011358</v>
+        <v>4.091791633205111</v>
       </c>
       <c r="D2">
-        <v>9.02847651674711</v>
+        <v>39.92083026922109</v>
       </c>
       <c r="E2">
-        <v>5.90488157325447</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F2">
-        <v>3.429255184798018</v>
+        <v>13.85319500452172</v>
       </c>
       <c r="G2">
-        <v>23.76140854825017</v>
+        <v>106.2622787717933</v>
       </c>
       <c r="H2">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I2">
-        <v>215.9508340107325</v>
+        <v>345.195944707936</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>198.2410750415232</v>
+        <v>175.4879337524677</v>
       </c>
       <c r="C3">
-        <v>1.082484559048971</v>
+        <v>4.871180515720371</v>
       </c>
       <c r="D3">
-        <v>6.018984344498074</v>
+        <v>26.61388684614741</v>
       </c>
       <c r="E3">
-        <v>3.374218041859697</v>
+        <v>15.18398118836863</v>
       </c>
       <c r="F3">
-        <v>4.302156504564785</v>
+        <v>17.37946282385454</v>
       </c>
       <c r="G3">
-        <v>36.83018324978774</v>
+        <v>164.7065320962796</v>
       </c>
       <c r="I3">
-        <v>249.8491017412825</v>
+        <v>404.2429772228382</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>161.5396868243762</v>
+        <v>142.9989514226191</v>
       </c>
       <c r="C4">
-        <v>0.7793888825152593</v>
+        <v>3.507249971318668</v>
       </c>
       <c r="D4">
-        <v>4.765029272727642</v>
+        <v>21.06932708653337</v>
       </c>
       <c r="E4">
-        <v>5.693992945638238</v>
+        <v>25.62296825537207</v>
       </c>
       <c r="F4">
-        <v>3.366905090528963</v>
+        <v>13.60131873171223</v>
       </c>
       <c r="G4">
-        <v>24.35544376195642</v>
+        <v>108.9188357410882</v>
       </c>
       <c r="H4">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I4">
-        <v>200.894657980769</v>
+        <v>317.4926016222619</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>184.8464078089878</v>
+        <v>163.6306409313551</v>
       </c>
       <c r="C5">
-        <v>1.039185176687012</v>
+        <v>4.676333295091555</v>
       </c>
       <c r="D5">
-        <v>7.272939416268505</v>
+        <v>32.15844660576145</v>
       </c>
       <c r="E5">
-        <v>3.795995297092157</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F5">
-        <v>3.27337994912538</v>
+        <v>13.22350432249801</v>
       </c>
       <c r="G5">
-        <v>17.22702119748137</v>
+        <v>77.04015210955016</v>
       </c>
       <c r="H5">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I5">
-        <v>218.2433512516948</v>
+        <v>311.3589569284076</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>175.7380340908638</v>
+        <v>155.5676818129985</v>
       </c>
       <c r="C6">
-        <v>1.428879617944642</v>
+        <v>6.429958280750889</v>
       </c>
       <c r="D6">
-        <v>6.018984344498074</v>
+        <v>26.61388684614741</v>
       </c>
       <c r="E6">
-        <v>3.585106669475927</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F6">
-        <v>3.242204901990854</v>
+        <v>13.09756618609327</v>
       </c>
       <c r="G6">
-        <v>23.16737333454392</v>
+        <v>103.6057218024985</v>
       </c>
       <c r="H6">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I6">
-        <v>213.3776885608303</v>
+        <v>322.3347701479393</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>172.2554206104046</v>
+        <v>152.4847856795091</v>
       </c>
       <c r="C7">
-        <v>0.8226882648772181</v>
+        <v>3.702097191947482</v>
       </c>
       <c r="D7">
-        <v>4.765029272727642</v>
+        <v>21.06932708653337</v>
       </c>
       <c r="E7">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F7">
-        <v>3.64748051473971</v>
+        <v>14.73476195935492</v>
       </c>
       <c r="G7">
-        <v>21.38526769342515</v>
+        <v>95.63605089461402</v>
       </c>
       <c r="H7">
-        <v>1.773950413618279</v>
+        <v>7.982776861282256</v>
       </c>
       <c r="I7">
-        <v>209.500275204966</v>
+        <v>317.4367726315211</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>166.0938736834383</v>
+        <v>147.0304309817973</v>
       </c>
       <c r="C8">
-        <v>1.255682088496807</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D8">
-        <v>5.015820287081728</v>
+        <v>22.17823903845617</v>
       </c>
       <c r="E8">
-        <v>4.217772552324621</v>
+        <v>18.97997648546079</v>
       </c>
       <c r="F8">
-        <v>3.460430231932545</v>
+        <v>13.97913314092647</v>
       </c>
       <c r="G8">
-        <v>17.82105641118762</v>
+        <v>79.69670907884499</v>
       </c>
       <c r="H8">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I8">
-        <v>198.455952059001</v>
+        <v>290.1759837441488</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>186.1858745322413</v>
+        <v>164.8163702134663</v>
       </c>
       <c r="C9">
-        <v>0.6927901177913416</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D9">
-        <v>10.03164057416346</v>
+        <v>44.35647807691234</v>
       </c>
       <c r="E9">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F9">
-        <v>3.398080137663491</v>
+        <v>13.72725686811699</v>
       </c>
       <c r="G9">
-        <v>13.06877470153759</v>
+        <v>58.44425332448633</v>
       </c>
       <c r="H9">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I9">
-        <v>219.0298039307261</v>
+        <v>309.8988114160234</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>226.637769574498</v>
+        <v>200.6253945332267</v>
       </c>
       <c r="C10">
-        <v>1.039185176687012</v>
+        <v>4.676333295091555</v>
       </c>
       <c r="D10">
-        <v>6.269775358852161</v>
+        <v>27.72279879807021</v>
       </c>
       <c r="E10">
-        <v>4.639549807557082</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F10">
-        <v>2.961629477780107</v>
+        <v>11.96412295845058</v>
       </c>
       <c r="G10">
-        <v>9.504563419300069</v>
+        <v>42.50491150871734</v>
       </c>
       <c r="H10">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I10">
-        <v>251.2495784161875</v>
+        <v>309.2585104343724</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>221.2799026814839</v>
+        <v>195.8824774047817</v>
       </c>
       <c r="C11">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D11">
-        <v>6.771357387560335</v>
+        <v>29.94062270191582</v>
       </c>
       <c r="E11">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F11">
-        <v>1.558752356726371</v>
+        <v>6.296906820237147</v>
       </c>
       <c r="G11">
-        <v>5.940352137062543</v>
+        <v>26.56556969294832</v>
       </c>
       <c r="H11">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I11">
-        <v>241.7307757604152</v>
+        <v>286.4974270090019</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>195.0263549057147</v>
+        <v>172.6421834754006</v>
       </c>
       <c r="C12">
-        <v>0.5195925883435062</v>
+        <v>2.338166647545778</v>
       </c>
       <c r="D12">
-        <v>4.765029272727642</v>
+        <v>21.06932708653337</v>
       </c>
       <c r="E12">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F12">
-        <v>1.122301696842987</v>
+        <v>4.533772910570748</v>
       </c>
       <c r="G12">
-        <v>10.09859863300632</v>
+        <v>45.16146847801216</v>
       </c>
       <c r="H12">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I12">
-        <v>219.3071902662295</v>
+        <v>280.7338278612373</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>153.2349931402044</v>
+        <v>135.6474298735291</v>
       </c>
       <c r="C13">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D13">
-        <v>3.761865215311296</v>
+        <v>16.63367927884213</v>
       </c>
       <c r="E13">
-        <v>5.90488157325447</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F13">
-        <v>0.997601508304878</v>
+        <v>4.030020364951777</v>
       </c>
       <c r="G13">
-        <v>5.346316923356287</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H13">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I13">
-        <v>169.7025602561162</v>
+        <v>208.8481678512037</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>120.2841117481674</v>
+        <v>106.4784895335919</v>
       </c>
       <c r="C14">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D14">
-        <v>3.511074200957208</v>
+        <v>15.52476732691932</v>
       </c>
       <c r="E14">
-        <v>6.748436083719393</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F14">
-        <v>0.6546759898250762</v>
+        <v>2.644700864499602</v>
       </c>
       <c r="G14">
-        <v>3.564211282237525</v>
+        <v>15.939341815769</v>
       </c>
       <c r="I14">
-        <v>135.1522037461642</v>
+        <v>172.7088869031764</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>79.02853667195855</v>
+        <v>69.95802764456482</v>
       </c>
       <c r="C15">
-        <v>0.1731975294478354</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D15">
-        <v>1.504746086124519</v>
+        <v>6.653471711536852</v>
       </c>
       <c r="E15">
-        <v>3.795995297092157</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F15">
-        <v>0.4676257070179115</v>
+        <v>1.889072046071145</v>
       </c>
       <c r="G15">
-        <v>4.158246495943779</v>
+        <v>18.59589878506383</v>
       </c>
       <c r="H15">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I15">
-        <v>89.3254533890979</v>
+        <v>115.8448131134758</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>40.98768173155818</v>
+        <v>36.28331603260482</v>
       </c>
       <c r="C16">
-        <v>0.4762932059815473</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D16">
-        <v>2.006328114832692</v>
+        <v>8.871295615382467</v>
       </c>
       <c r="E16">
-        <v>1.687109020929848</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F16">
-        <v>0.5611508484214935</v>
+        <v>2.266886455285374</v>
       </c>
       <c r="G16">
-        <v>2.970176068531271</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I16">
-        <v>48.68873899025503</v>
+        <v>70.4395929708481</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>28.12880118832425</v>
+        <v>24.90031492433664</v>
       </c>
       <c r="C17">
-        <v>0.2164969118097943</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D17">
-        <v>0.5015820287081729</v>
+        <v>2.217823903845617</v>
       </c>
       <c r="F17">
-        <v>0.2805754242107468</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G17">
-        <v>2.970176068531271</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I17">
-        <v>32.09763162158423</v>
+        <v>42.50860300544318</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>22.7709342953101</v>
+        <v>20.15739779589156</v>
       </c>
       <c r="C18">
-        <v>0.4329938236195885</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D18">
-        <v>1.003164057416346</v>
+        <v>4.435647807691233</v>
       </c>
       <c r="E18">
-        <v>0.210888627616231</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F18">
-        <v>0.3741005656143292</v>
+        <v>1.511257636856916</v>
       </c>
       <c r="G18">
-        <v>2.376140854825017</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="H18">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I18">
-        <v>27.56243342742789</v>
+        <v>41.40195256179851</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>12.59098719858323</v>
+        <v>11.14585525184592</v>
       </c>
       <c r="C19">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D19">
-        <v>1.003164057416346</v>
+        <v>4.435647807691233</v>
       </c>
       <c r="F19">
-        <v>0.4052756127488568</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G19">
-        <v>4.158246495943779</v>
+        <v>18.59589878506383</v>
       </c>
       <c r="I19">
-        <v>18.28757151177809</v>
+        <v>36.39913927974909</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>12.32309385393252</v>
+        <v>10.90870939542367</v>
       </c>
       <c r="C20">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D20">
-        <v>0.7523730430622593</v>
+        <v>3.326735855768426</v>
       </c>
       <c r="E20">
-        <v>0.8435545104649241</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F20">
-        <v>0.2494003770762195</v>
+        <v>1.007505091237944</v>
       </c>
       <c r="G20">
-        <v>1.188070427412509</v>
+        <v>5.313113938589668</v>
       </c>
       <c r="I20">
-        <v>15.48639035903431</v>
+        <v>24.93660123999831</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>32.14720135808483</v>
+        <v>28.45750277067046</v>
       </c>
       <c r="C21">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D21">
-        <v>1.003164057416346</v>
+        <v>4.435647807691233</v>
       </c>
       <c r="E21">
-        <v>0.4217772552324621</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F21">
-        <v>0.4052756127488568</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G21">
-        <v>1.188070427412509</v>
+        <v>5.313113938589668</v>
       </c>
       <c r="I21">
-        <v>35.20878809325697</v>
+        <v>41.93630515938791</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>92.69109724914465</v>
+        <v>82.05246632209978</v>
       </c>
       <c r="C22">
-        <v>0.3463950588956708</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D22">
-        <v>3.761865215311296</v>
+        <v>16.63367927884213</v>
       </c>
       <c r="E22">
-        <v>1.897997648546079</v>
+        <v>8.540989418457356</v>
       </c>
       <c r="F22">
-        <v>1.309351979650152</v>
+        <v>5.289401728999205</v>
       </c>
       <c r="G22">
-        <v>9.504563419300069</v>
+        <v>42.50491150871734</v>
       </c>
       <c r="I22">
-        <v>109.5112705708479</v>
+        <v>156.5802260221463</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>146.8055528685874</v>
+        <v>129.955929319395</v>
       </c>
       <c r="C23">
-        <v>0.6061913530674239</v>
+        <v>2.727861088803408</v>
       </c>
       <c r="D23">
-        <v>4.012656229665383</v>
+        <v>17.74259123076493</v>
       </c>
       <c r="E23">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F23">
-        <v>2.338128535089556</v>
+        <v>9.445360230355719</v>
       </c>
       <c r="G23">
-        <v>19.60316205230639</v>
+        <v>87.66637998672947</v>
       </c>
       <c r="H23">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I23">
-        <v>181.73232101285</v>
+        <v>285.1879567396506</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>193.4189948378105</v>
+        <v>171.2193083368672</v>
       </c>
       <c r="C24">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D24">
-        <v>6.269775358852161</v>
+        <v>27.72279879807021</v>
       </c>
       <c r="E24">
-        <v>8.013767849416778</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F24">
-        <v>2.556353865031251</v>
+        <v>10.32692718518893</v>
       </c>
       <c r="G24">
-        <v>11.88070427412509</v>
+        <v>53.13113938589664</v>
       </c>
       <c r="H24">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I24">
-        <v>222.9235018295197</v>
+        <v>301.9897044276761</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>195.562141595016</v>
+        <v>173.1164751882453</v>
       </c>
       <c r="C25">
-        <v>0.4329938236195885</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D25">
-        <v>5.015820287081728</v>
+        <v>22.17823903845617</v>
       </c>
       <c r="E25">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F25">
-        <v>1.932852922340701</v>
+        <v>7.808164457094064</v>
       </c>
       <c r="G25">
-        <v>17.82105641118762</v>
+        <v>79.69670907884499</v>
       </c>
       <c r="H25">
-        <v>1.182633609078853</v>
+        <v>5.321851240854837</v>
       </c>
       <c r="I25">
-        <v>227.4306029663466</v>
+        <v>314.7438806408825</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>172.5233139550553</v>
+        <v>152.7219315359314</v>
       </c>
       <c r="C26">
-        <v>0.9092870296011358</v>
+        <v>4.091791633205111</v>
       </c>
       <c r="D26">
-        <v>9.02847651674711</v>
+        <v>39.92083026922109</v>
       </c>
       <c r="E26">
-        <v>5.90488157325447</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F26">
-        <v>3.429255184798018</v>
+        <v>13.85319500452172</v>
       </c>
       <c r="G26">
-        <v>23.76140854825017</v>
+        <v>106.2622787717933</v>
       </c>
       <c r="H26">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I26">
-        <v>215.9508340107325</v>
+        <v>345.195944707936</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>148.9486996257931</v>
+        <v>131.8530961707731</v>
       </c>
       <c r="C27">
-        <v>0.9092870296011358</v>
+        <v>4.091791633205111</v>
       </c>
       <c r="D27">
-        <v>6.520566373206243</v>
+        <v>28.83171074999303</v>
       </c>
       <c r="E27">
-        <v>3.585106669475927</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F27">
-        <v>4.02158108035404</v>
+        <v>16.24601959621184</v>
       </c>
       <c r="G27">
-        <v>16.63298598377512</v>
+        <v>74.38359514025531</v>
       </c>
       <c r="H27">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I27">
-        <v>180.8153323637187</v>
+        <v>272.4261685098892</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>169.040700474596</v>
+        <v>149.6390354024421</v>
       </c>
       <c r="C28">
-        <v>1.255682088496807</v>
+        <v>5.65056939823563</v>
       </c>
       <c r="D28">
-        <v>6.520566373206243</v>
+        <v>28.83171074999303</v>
       </c>
       <c r="E28">
-        <v>4.850438435173313</v>
+        <v>21.8269729582799</v>
       </c>
       <c r="F28">
-        <v>3.117504713452743</v>
+        <v>12.59381364047429</v>
       </c>
       <c r="G28">
-        <v>23.76140854825017</v>
+        <v>106.2622787717933</v>
       </c>
       <c r="H28">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I28">
-        <v>208.9405118362016</v>
+        <v>326.5783313348365</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>154.0386731741565</v>
+        <v>136.3588674427958</v>
       </c>
       <c r="C29">
-        <v>1.082484559048971</v>
+        <v>4.871180515720371</v>
       </c>
       <c r="D29">
-        <v>7.022148401914417</v>
+        <v>31.04953465383865</v>
       </c>
       <c r="E29">
-        <v>3.585106669475927</v>
+        <v>16.13298001264167</v>
       </c>
       <c r="F29">
-        <v>2.556353865031251</v>
+        <v>10.32692718518893</v>
       </c>
       <c r="G29">
-        <v>10.09859863300632</v>
+        <v>45.16146847801216</v>
       </c>
       <c r="H29">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I29">
-        <v>178.9746821071728</v>
+        <v>246.561883908625</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>155.6460332420607</v>
+        <v>137.7817425813294</v>
       </c>
       <c r="C30">
-        <v>0.6494907354293827</v>
+        <v>2.922708309432222</v>
       </c>
       <c r="D30">
-        <v>6.269775358852161</v>
+        <v>27.72279879807021</v>
       </c>
       <c r="E30">
-        <v>3.163329414243465</v>
+        <v>14.23498236409559</v>
       </c>
       <c r="F30">
-        <v>3.117504713452743</v>
+        <v>12.59381364047429</v>
       </c>
       <c r="G30">
-        <v>19.60316205230639</v>
+        <v>87.66637998672947</v>
       </c>
       <c r="H30">
-        <v>0.7884224060525685</v>
+        <v>3.547900827236558</v>
       </c>
       <c r="I30">
-        <v>189.2377179223975</v>
+        <v>286.4703265073677</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>156.1818199313621</v>
+        <v>138.256034294174</v>
       </c>
       <c r="C31">
-        <v>0.8659876472391771</v>
+        <v>3.896944412576297</v>
       </c>
       <c r="D31">
-        <v>8.025312459330767</v>
+        <v>35.48518246152987</v>
       </c>
       <c r="E31">
-        <v>3.374218041859697</v>
+        <v>15.18398118836863</v>
       </c>
       <c r="F31">
-        <v>3.64748051473971</v>
+        <v>14.73476195935492</v>
       </c>
       <c r="G31">
-        <v>12.47473948783134</v>
+        <v>55.78769635519149</v>
       </c>
       <c r="H31">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I31">
-        <v>184.9637692853891</v>
+        <v>265.1185510848134</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>163.4149402369312</v>
+        <v>144.6589724175748</v>
       </c>
       <c r="C32">
-        <v>0.9958857943250535</v>
+        <v>4.481486074462741</v>
       </c>
       <c r="D32">
-        <v>6.269775358852161</v>
+        <v>27.72279879807021</v>
       </c>
       <c r="E32">
-        <v>4.428661179940852</v>
+        <v>19.92897530973383</v>
       </c>
       <c r="F32">
-        <v>3.64748051473971</v>
+        <v>14.73476195935492</v>
       </c>
       <c r="G32">
-        <v>13.66280991524384</v>
+        <v>61.10081029378119</v>
       </c>
       <c r="H32">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I32">
-        <v>193.0108698045722</v>
+        <v>275.2887304734051</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>186.1858745322413</v>
+        <v>164.8163702134663</v>
       </c>
       <c r="C33">
-        <v>0.6927901177913416</v>
+        <v>3.117555530061037</v>
       </c>
       <c r="D33">
-        <v>10.03164057416346</v>
+        <v>44.35647807691234</v>
       </c>
       <c r="E33">
-        <v>5.061327062789545</v>
+        <v>22.77597178255295</v>
       </c>
       <c r="F33">
-        <v>3.398080137663491</v>
+        <v>13.72725686811699</v>
       </c>
       <c r="G33">
-        <v>13.06877470153759</v>
+        <v>58.44425332448633</v>
       </c>
       <c r="H33">
-        <v>0.5913168045394265</v>
+        <v>2.660925620427419</v>
       </c>
       <c r="I33">
-        <v>219.0298039307261</v>
+        <v>309.8988114160234</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>226.637769574498</v>
+        <v>200.6253945332267</v>
       </c>
       <c r="C34">
-        <v>1.039185176687012</v>
+        <v>4.676333295091555</v>
       </c>
       <c r="D34">
-        <v>6.269775358852161</v>
+        <v>27.72279879807021</v>
       </c>
       <c r="E34">
-        <v>4.639549807557082</v>
+        <v>20.87797413400687</v>
       </c>
       <c r="F34">
-        <v>2.961629477780107</v>
+        <v>11.96412295845058</v>
       </c>
       <c r="G34">
-        <v>9.504563419300069</v>
+        <v>42.50491150871734</v>
       </c>
       <c r="H34">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I34">
-        <v>251.2495784161875</v>
+        <v>309.2585104343724</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>221.2799026814839</v>
+        <v>195.8824774047817</v>
       </c>
       <c r="C35">
-        <v>0.3030956765337119</v>
+        <v>1.363930544401704</v>
       </c>
       <c r="D35">
-        <v>6.771357387560335</v>
+        <v>29.94062270191582</v>
       </c>
       <c r="E35">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F35">
-        <v>1.558752356726371</v>
+        <v>6.296906820237147</v>
       </c>
       <c r="G35">
-        <v>5.940352137062543</v>
+        <v>26.56556969294832</v>
       </c>
       <c r="H35">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I35">
-        <v>241.7307757604152</v>
+        <v>286.4974270090019</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>195.0263549057147</v>
+        <v>172.6421834754006</v>
       </c>
       <c r="C36">
-        <v>0.5195925883435062</v>
+        <v>2.338166647545778</v>
       </c>
       <c r="D36">
-        <v>4.765029272727642</v>
+        <v>21.06932708653337</v>
       </c>
       <c r="E36">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F36">
-        <v>1.122301696842987</v>
+        <v>4.533772910570748</v>
       </c>
       <c r="G36">
-        <v>10.09859863300632</v>
+        <v>45.16146847801216</v>
       </c>
       <c r="H36">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I36">
-        <v>219.3071902662295</v>
+        <v>280.7338278612373</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>153.2349931402044</v>
+        <v>135.6474298735291</v>
       </c>
       <c r="C37">
-        <v>0.2597962941717531</v>
+        <v>1.169083323772889</v>
       </c>
       <c r="D37">
-        <v>3.761865215311296</v>
+        <v>16.63367927884213</v>
       </c>
       <c r="E37">
-        <v>5.90488157325447</v>
+        <v>26.57196707964511</v>
       </c>
       <c r="F37">
-        <v>0.997601508304878</v>
+        <v>4.030020364951777</v>
       </c>
       <c r="G37">
-        <v>5.346316923356287</v>
+        <v>23.9090127236535</v>
       </c>
       <c r="H37">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I37">
-        <v>169.7025602561162</v>
+        <v>208.8481678512037</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>120.2841117481674</v>
+        <v>106.4784895335919</v>
       </c>
       <c r="C38">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D38">
-        <v>3.511074200957208</v>
+        <v>15.52476732691932</v>
       </c>
       <c r="E38">
-        <v>6.748436083719393</v>
+        <v>30.36796237673726</v>
       </c>
       <c r="F38">
-        <v>0.6546759898250762</v>
+        <v>2.644700864499602</v>
       </c>
       <c r="G38">
-        <v>3.564211282237525</v>
+        <v>15.939341815769</v>
       </c>
       <c r="I38">
-        <v>135.1522037461642</v>
+        <v>172.7088869031764</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>79.02853667195855</v>
+        <v>69.95802764456482</v>
       </c>
       <c r="C39">
-        <v>0.1731975294478354</v>
+        <v>0.7793888825152593</v>
       </c>
       <c r="D39">
-        <v>1.504746086124519</v>
+        <v>6.653471711536852</v>
       </c>
       <c r="E39">
-        <v>3.795995297092157</v>
+        <v>17.08197883691471</v>
       </c>
       <c r="F39">
-        <v>0.4676257070179115</v>
+        <v>1.889072046071145</v>
       </c>
       <c r="G39">
-        <v>4.158246495943779</v>
+        <v>18.59589878506383</v>
       </c>
       <c r="H39">
-        <v>0.1971056015131421</v>
+        <v>0.8869752068091395</v>
       </c>
       <c r="I39">
-        <v>89.3254533890979</v>
+        <v>115.8448131134758</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>40.98768173155818</v>
+        <v>36.28331603260482</v>
       </c>
       <c r="C40">
-        <v>0.4762932059815473</v>
+        <v>2.143319426916963</v>
       </c>
       <c r="D40">
-        <v>2.006328114832692</v>
+        <v>8.871295615382467</v>
       </c>
       <c r="E40">
-        <v>1.687109020929848</v>
+        <v>7.591990594184314</v>
       </c>
       <c r="F40">
-        <v>0.5611508484214935</v>
+        <v>2.266886455285374</v>
       </c>
       <c r="G40">
-        <v>2.970176068531271</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I40">
-        <v>48.68873899025503</v>
+        <v>70.4395929708481</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>28.12880118832425</v>
+        <v>24.90031492433664</v>
       </c>
       <c r="C41">
-        <v>0.2164969118097943</v>
+        <v>0.9742361031440743</v>
       </c>
       <c r="D41">
-        <v>0.5015820287081729</v>
+        <v>2.217823903845617</v>
       </c>
       <c r="F41">
-        <v>0.2805754242107468</v>
+        <v>1.133443227642687</v>
       </c>
       <c r="G41">
-        <v>2.970176068531271</v>
+        <v>13.28278484647416</v>
       </c>
       <c r="I41">
-        <v>32.09763162158423</v>
+        <v>42.50860300544318</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>22.7709342953101</v>
+        <v>20.15739779589156</v>
       </c>
       <c r="C42">
-        <v>0.4329938236195885</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D42">
-        <v>1.003164057416346</v>
+        <v>4.435647807691233</v>
       </c>
       <c r="E42">
-        <v>0.210888627616231</v>
+        <v>0.9489988242730393</v>
       </c>
       <c r="F42">
-        <v>0.3741005656143292</v>
+        <v>1.511257636856916</v>
       </c>
       <c r="G42">
-        <v>2.376140854825017</v>
+        <v>10.62622787717934</v>
       </c>
       <c r="H42">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I42">
-        <v>27.56243342742789</v>
+        <v>41.40195256179851</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>12.59098719858323</v>
+        <v>11.14585525184592</v>
       </c>
       <c r="C43">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D43">
-        <v>1.003164057416346</v>
+        <v>4.435647807691233</v>
       </c>
       <c r="F43">
-        <v>0.4052756127488568</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G43">
-        <v>4.158246495943779</v>
+        <v>18.59589878506383</v>
       </c>
       <c r="I43">
-        <v>18.28757151177809</v>
+        <v>36.39913927974909</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>12.32309385393252</v>
+        <v>10.90870939542367</v>
       </c>
       <c r="C44">
-        <v>0.1298981470858765</v>
+        <v>0.5845416618864444</v>
       </c>
       <c r="D44">
-        <v>0.7523730430622593</v>
+        <v>3.326735855768426</v>
       </c>
       <c r="E44">
-        <v>0.8435545104649241</v>
+        <v>3.795995297092157</v>
       </c>
       <c r="F44">
-        <v>0.2494003770762195</v>
+        <v>1.007505091237944</v>
       </c>
       <c r="G44">
-        <v>1.188070427412509</v>
+        <v>5.313113938589668</v>
       </c>
       <c r="I44">
-        <v>15.48639035903431</v>
+        <v>24.93660123999831</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>32.14720135808483</v>
+        <v>28.45750277067046</v>
       </c>
       <c r="C45">
-        <v>0.04329938236195885</v>
+        <v>0.1948472206288148</v>
       </c>
       <c r="D45">
-        <v>1.003164057416346</v>
+        <v>4.435647807691233</v>
       </c>
       <c r="E45">
-        <v>0.4217772552324621</v>
+        <v>1.897997648546079</v>
       </c>
       <c r="F45">
-        <v>0.4052756127488568</v>
+        <v>1.637195773261658</v>
       </c>
       <c r="G45">
-        <v>1.188070427412509</v>
+        <v>5.313113938589668</v>
       </c>
       <c r="I45">
-        <v>35.20878809325697</v>
+        <v>41.93630515938791</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>92.69109724914465</v>
+        <v>82.05246632209978</v>
       </c>
       <c r="C46">
-        <v>0.3463950588956708</v>
+        <v>1.558777765030519</v>
       </c>
       <c r="D46">
-        <v>3.761865215311296</v>
+        <v>16.63367927884213</v>
       </c>
       <c r="E46">
-        <v>1.897997648546079</v>
+        <v>8.540989418457356</v>
       </c>
       <c r="F46">
-        <v>1.309351979650152</v>
+        <v>5.289401728999205</v>
       </c>
       <c r="G46">
-        <v>9.504563419300069</v>
+        <v>42.50491150871734</v>
       </c>
       <c r="I46">
-        <v>109.5112705708479</v>
+        <v>156.5802260221463</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>146.8055528685874</v>
+        <v>129.955929319395</v>
       </c>
       <c r="C47">
-        <v>0.6061913530674239</v>
+        <v>2.727861088803408</v>
       </c>
       <c r="D47">
-        <v>4.012656229665383</v>
+        <v>17.74259123076493</v>
       </c>
       <c r="E47">
-        <v>7.381101966568083</v>
+        <v>33.21495884955637</v>
       </c>
       <c r="F47">
-        <v>2.338128535089556</v>
+        <v>9.445360230355719</v>
       </c>
       <c r="G47">
-        <v>19.60316205230639</v>
+        <v>87.66637998672947</v>
       </c>
       <c r="H47">
-        <v>0.9855280075657108</v>
+        <v>4.434876034045697</v>
       </c>
       <c r="I47">
-        <v>181.73232101285</v>
+        <v>285.1879567396506</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>193.4189948378105</v>
+        <v>171.2193083368672</v>
       </c>
       <c r="C48">
-        <v>0.3896944412576296</v>
+        <v>1.753624985659334</v>
       </c>
       <c r="D48">
-        <v>6.269775358852161</v>
+        <v>27.72279879807021</v>
       </c>
       <c r="E48">
-        <v>8.013767849416778</v>
+        <v>36.06195532237549</v>
       </c>
       <c r="F48">
-        <v>2.556353865031251</v>
+        <v>10.32692718518893</v>
       </c>
       <c r="G48">
-        <v>11.88070427412509</v>
+        <v>53.13113938589664</v>
       </c>
       <c r="H48">
-        <v>0.3942112030262843</v>
+        <v>1.773950413618279</v>
       </c>
       <c r="I48">
-        <v>222.9235018295197</v>
+        <v>301.9897044276761</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>195.562141595016</v>
+        <v>173.1164751882453</v>
       </c>
       <c r="C49">
-        <v>0.4329938236195885</v>
+        <v>1.948472206288149</v>
       </c>
       <c r="D49">
-        <v>5.015820287081728</v>
+        <v>22.17823903845617</v>
       </c>
       <c r="E49">
-        <v>5.483104318022007</v>
+        <v>24.67396943109902</v>
       </c>
       <c r="F49">
-        <v>1.932852922340701</v>
+        <v>7.808164457094064</v>
       </c>
       <c r="G49">
-        <v>17.82105641118762</v>
+        <v>79.69670907884499</v>
       </c>
       <c r="H49">
-        <v>1.182633609078853</v>
+        <v>5.321851240854837</v>
       </c>
       <c r="I49">
-        <v>227.4306029663466</v>
+        <v>314.7438806408825</v>
       </c>
     </row>
   </sheetData>
